--- a/Report/Timeline.xlsx
+++ b/Report/Timeline.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/khanhthieu/Documents/GitHub/ActivitiesSound/Report/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{707D6E75-E99D-754A-BF9D-1F676F37E9D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB97C420-2034-EE4A-A23E-684263A2F362}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3180" yWindow="2380" windowWidth="28040" windowHeight="17440" xr2:uid="{3FF27029-0A3C-F645-BCE1-065DD0190960}"/>
   </bookViews>
@@ -117,15 +117,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="8">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -207,27 +213,23 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -237,17 +239,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -565,57 +567,57 @@
   <dimension ref="A1:S19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="6" customWidth="1"/>
     <col min="2" max="2" width="32.83203125" customWidth="1"/>
-    <col min="3" max="3" width="19" customWidth="1"/>
-    <col min="4" max="4" width="30.33203125" customWidth="1"/>
-    <col min="5" max="5" width="28.1640625" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" customWidth="1"/>
+    <col min="4" max="4" width="14.83203125" customWidth="1"/>
+    <col min="5" max="5" width="17.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5"/>
-      <c r="O1" s="5"/>
-      <c r="P1" s="5"/>
-      <c r="Q1" s="5"/>
-      <c r="R1" s="8"/>
-      <c r="S1" s="9"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="10"/>
+      <c r="N1" s="10"/>
+      <c r="O1" s="10"/>
+      <c r="P1" s="10"/>
+      <c r="Q1" s="10"/>
+      <c r="R1" s="6"/>
+      <c r="S1" s="7"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A2" s="7"/>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="11"/>
+      <c r="A2" s="12"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="14"/>
       <c r="F2" s="2">
         <v>5</v>
       </c>
@@ -657,7 +659,7 @@
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3" s="3"/>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="8" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="3"/>
@@ -685,11 +687,17 @@
       <c r="B4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
+      <c r="C4" s="5">
+        <v>2</v>
+      </c>
+      <c r="D4" s="17">
+        <v>44459</v>
+      </c>
+      <c r="E4" s="17">
+        <v>44472</v>
+      </c>
+      <c r="F4" s="16"/>
+      <c r="G4" s="16"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
@@ -710,12 +718,18 @@
       <c r="B5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
+      <c r="C5" s="5">
+        <v>1</v>
+      </c>
+      <c r="D5" s="17">
+        <v>44473</v>
+      </c>
+      <c r="E5" s="17">
+        <v>44479</v>
+      </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
+      <c r="H5" s="16"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
@@ -735,12 +749,18 @@
       <c r="B6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
+      <c r="C6" s="5">
+        <v>1</v>
+      </c>
+      <c r="D6" s="17">
+        <v>44473</v>
+      </c>
+      <c r="E6" s="17">
+        <v>44479</v>
+      </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
+      <c r="H6" s="16"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
@@ -760,12 +780,18 @@
       <c r="B7" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
+      <c r="C7" s="5">
+        <v>1</v>
+      </c>
+      <c r="D7" s="17">
+        <v>44473</v>
+      </c>
+      <c r="E7" s="17">
+        <v>44479</v>
+      </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
+      <c r="H7" s="16"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
@@ -781,9 +807,9 @@
     <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
@@ -801,12 +827,12 @@
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
@@ -829,14 +855,20 @@
       <c r="B10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
+      <c r="C10" s="5">
+        <v>2</v>
+      </c>
+      <c r="D10" s="17">
+        <v>44480</v>
+      </c>
+      <c r="E10" s="17">
+        <v>44493</v>
+      </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
+      <c r="I10" s="16"/>
+      <c r="J10" s="16"/>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
@@ -854,14 +886,20 @@
       <c r="B11" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
+      <c r="C11" s="5">
+        <v>2</v>
+      </c>
+      <c r="D11" s="17">
+        <v>44480</v>
+      </c>
+      <c r="E11" s="17">
+        <v>44493</v>
+      </c>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
+      <c r="I11" s="16"/>
+      <c r="J11" s="16"/>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
@@ -875,9 +913,9 @@
     <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
@@ -895,12 +933,12 @@
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A13" s="1"/>
-      <c r="B13" s="14" t="s">
+      <c r="B13" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
@@ -923,17 +961,23 @@
       <c r="B14" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
+      <c r="C14" s="5">
+        <v>3</v>
+      </c>
+      <c r="D14" s="17">
+        <v>44494</v>
+      </c>
+      <c r="E14" s="17">
+        <v>44514</v>
+      </c>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="1"/>
-      <c r="M14" s="1"/>
+      <c r="K14" s="16"/>
+      <c r="L14" s="16"/>
+      <c r="M14" s="16"/>
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
       <c r="P14" s="1"/>
@@ -948,9 +992,15 @@
       <c r="B15" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
+      <c r="C15" s="5">
+        <v>1</v>
+      </c>
+      <c r="D15" s="17">
+        <v>44515</v>
+      </c>
+      <c r="E15" s="17">
+        <v>44521</v>
+      </c>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
@@ -959,7 +1009,7 @@
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
-      <c r="N15" s="1"/>
+      <c r="N15" s="16"/>
       <c r="O15" s="1"/>
       <c r="P15" s="1"/>
       <c r="Q15" s="1"/>
@@ -969,9 +1019,9 @@
     <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
@@ -994,9 +1044,15 @@
       <c r="B17" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
+      <c r="C17" s="5">
+        <v>2</v>
+      </c>
+      <c r="D17" s="17">
+        <v>44525</v>
+      </c>
+      <c r="E17" s="17">
+        <v>44535</v>
+      </c>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
@@ -1006,8 +1062,8 @@
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
       <c r="N17" s="1"/>
-      <c r="O17" s="1"/>
-      <c r="P17" s="1"/>
+      <c r="O17" s="16"/>
+      <c r="P17" s="16"/>
       <c r="Q17" s="1"/>
       <c r="R17" s="4"/>
       <c r="S17" s="4"/>
@@ -1015,9 +1071,9 @@
     <row r="18" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
@@ -1034,12 +1090,33 @@
       <c r="S18" s="4"/>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A19" s="12">
+      <c r="A19" s="15">
         <v>10</v>
       </c>
-      <c r="B19" s="12" t="s">
+      <c r="B19" s="15" t="s">
         <v>18</v>
       </c>
+      <c r="C19" s="5">
+        <v>1</v>
+      </c>
+      <c r="D19" s="17">
+        <v>37596</v>
+      </c>
+      <c r="E19" s="17">
+        <v>44542</v>
+      </c>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="1"/>
+      <c r="P19" s="1"/>
+      <c r="Q19" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="6">
